--- a/datasets/sad_data.xlsx
+++ b/datasets/sad_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cfeb0658430f91/PBL 2 Project/Project/MUSIC-RECOMMENDATION-SYSTEM/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cfeb0658430f91/_My/emotion-based-music-recommendation-system/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F150515F-F10A-422E-9DE9-6D2F218BB939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCDB9C6-6D07-45BB-8E08-C5C10AC911C5}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F150515F-F10A-422E-9DE9-6D2F218BB939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A512C3A5-6AB8-4FA4-9EAF-5360203288D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="265">
   <si>
     <t>name</t>
   </si>
@@ -434,9 +434,6 @@
     <t>Sum of valence</t>
   </si>
   <si>
-    <t>acoustic</t>
-  </si>
-  <si>
     <t>Bekhayali</t>
   </si>
   <si>
@@ -825,24 +822,6 @@
   </si>
   <si>
     <t>Teri Meri (Reprise)</t>
-  </si>
-  <si>
-    <t>0.3 to 0.7</t>
-  </si>
-  <si>
-    <t>70 to 160</t>
-  </si>
-  <si>
-    <t>0 to 0.6</t>
-  </si>
-  <si>
-    <t>0.2 to 0.9</t>
-  </si>
-  <si>
-    <t>-4.0 to -11.0</t>
-  </si>
-  <si>
-    <t>0.25 to 0.8</t>
   </si>
 </sst>
 </file>
@@ -903,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -912,9 +891,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2532,1159 +2510,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.4451106404528017E-2"/>
-          <c:y val="0.10924370137678564"/>
-          <c:w val="0.94707197994510639"/>
-          <c:h val="0.85835724995390617"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$156</c:f>
-              <c:strCache>
-                <c:ptCount val="144"/>
-                <c:pt idx="0">
-                  <c:v>Agar Tum Saath Ho</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mann Bharryaa 2.0 (From "Shershaah")</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bekhayali</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hamari Adhuri Kahani (Title Track) [From "Hamari Adhuri Kahani"]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Main Dhoondne Ko Zamaane Mein</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Tum Hi Aana (Sad Version)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Roke Na Ruke Naina</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Channa Mereya (From "Ae Dil Hai Mushkil")</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Main Rahoon Ya Na Rahoon</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Khamoshiyan</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>KHAMAKHA</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dil De Diya (From "Thank God")</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Galliyan Returns (From "Ek Villain Returns")</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Ab Pyaar Na Karna Hai Tujhe</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Chale Jaana Phir</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Sunn Raha Hai (Female)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Achha Sila Diya</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Taaron Ke Shehar</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Judaai</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Maula</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Allah Waariyan</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Yaad Aati Hai</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Daayre</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Tera Ghata</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Lo Maan Liya</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Duaa</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Tu Aake Dekhle</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Baaton Ko Teri</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Kyun Kiya</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Lut Gaye</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Tujhe Bhula Diya</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Nain Na Jodeen</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Sapna Jahan (From "Brothers")</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Beete Lamhein</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Judaiyaan</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Jo Tu Na Mila - Acoustic</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Kaun Tujhe (From "M.S.Dhoni - The Untold Story")</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Baarishein</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Kyun</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Kyun Duet</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Jee Le Zaraa</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Saiyaara</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Pachtaoge (From "Jaani Ve")</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Zinda</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Kalle Kalle (From "Chandigarh Kare Aashiqui")</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Phir Na Aisi Raat Aayegi (From "Laal Singh Chaddha")</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Zaroorat</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Dhokebaaz</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Aankh Hai Bhari Bhari Aur Tum 2.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Tu Yaheen Hai</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Filhaal2 Mohabbat</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Ranjha (From "Shershaah")</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Ek Tarfa 2.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Naina</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Wafa Na Raas Aayee</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Tu Bhi Sataya Jayega</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Bedardi Se Pyaar Ka</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Main Jis Din Bhulaa Du</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Woh Chaand Kahan Se Laogi</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Mujhe Peene Do</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Dil Ko Maine Di Kasam</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Mehrama (From "Love Aaj Kal")</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Yeh Dooriyan</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Chal Ghar Chalen (From "Malang - Unleash The Madness") [Mithoon feat. Arijit Singh]</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Intezaar - Acoustic</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Dil Royi Jaye</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Teri Meri</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Hasi - Female Version</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Baarish</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Abhi Mujh Mein Kahin</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Bandeya (feat. Arijit Singh) - From "Dil Juunglee"</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Bin Tere</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Humnava</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Main Agar</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Judaai (From "Badlapur)</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Kabira</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Jiyein Kyun</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Tu Bhoola Jise</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Aahatein</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Jag Soona Soona Lage</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>Galliyan (From "Ek Villain")</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Dooriyan</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Ae Dil Hai Mushkil Title Track (From "Ae Dil Hai Mushkil")</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Das Ki Kasoor</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Yaadein</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Jeena Jeena</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Banjaara (From "Ek Villain")</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Tera Chehra</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Sanam Teri Kasam - Reprise</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Sunn Raha Hai</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>O Saathi</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>Roke Na Ruke Naina (From "Badrinath Ki Dulhania")</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Ghar Se Nikalte Hi</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>Aaj Jaane Ki Zid Na Karo</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Bewajah</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Zindagi Kuch Toh Bata (Reprise)</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Tu Jo Mila</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Banjaara</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Do Pal</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Bhula Dena</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Kal Ho Naa Ho - Sad</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>Milne Hai Mujhse Aayi</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>Bekhayali (From "Kabir Singh")</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Tera Yaar Hoon Main</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Humnava (From "Hamari Adhuri Kahani")</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Tere Mere (From "Chef")</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Hasi - Male Version</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>O Re Piya</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>Tune Jo Na Kaha</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Mujh Mein Tu</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Aaoge Jab Tum</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Hamari Adhuri Kahani (Title Track)</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Saaiyaan</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Main Yahan Tu Wahan</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Samjhawan</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Kal Ho Naa Ho</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Bulleya (From "Ae Dil Hai Mushkil")</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>Baarish Lete Aana</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Phir Le Aya Dil (From "Barfi!") - Reprise</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Nai Lagda (From "Notebook")</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Yeh Kaisi Jagah</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>Woh Baarishein</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Bhula Diya</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Song: Hamesha Tumko Chaha</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Maana Ke Hum Yaar Nahin</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Dil Royi Jaye (From "De De Pyaar De")</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Chan Kitthan</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Rula Diya (From "Batla House")</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Raakh</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Asal Mein</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Shayad (From "Love Aaj Kal")</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Humsafar (Alia's Version)</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>Mehrama</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>Duaa (From "Shanghai")</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Khamoshiyan (From "Khamoshiyan")</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Pal</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Saware (From "Phantom")</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Channa Mereya - Unplugged</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Samjhawan (Unplugged by Alia Bhatt) [From "Humpty Sharma Ki Dulhania"]</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Mitwa (From "Kabhi Alvida Naa Kehna")</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Piya O Re Piya</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Kabhi Khushi Kabhie Gham - Sad Version, 2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Tadap Tadap</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Teri Meri (Reprise)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$156</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
-                <c:pt idx="0">
-                  <c:v>0.51900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.38100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.48799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.52100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.58799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.61199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.57099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.59499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.79700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.436</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.65200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.78100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.53900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.70599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.26900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.57799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.61599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.42299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.504</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.58299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.38600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.29199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.43099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.59499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.60199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.69799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.69099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.41799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.41699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.41799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.71199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.77100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.52800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.41499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.57799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.57299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.55600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.86899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.61199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.63700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.34899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.59499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.63400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.56599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.23799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.32400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.52100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.51700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.48499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.44700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.38700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.55100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.69799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.47799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.81100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.373</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.55500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.60899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.55400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.28799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.65400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.54500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.52400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.25700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.48899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.50700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.64100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.496</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.38100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.46200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.28199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.67800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.61499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.59099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.48899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.55600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.50800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.46700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.70699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.58499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.54100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.47799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.67200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.58099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.53200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.47499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.51900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.45900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.35899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.55600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.48199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.52900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.76900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.54500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.54800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.53300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.29699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.46400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.622</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.36699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.52100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.53800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.73899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.44800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.55100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.45600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.63100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.57799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.502</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.68300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.251</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.25600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.57399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.46400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.46200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.69099999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4071-4F5C-8676-C5AAEA8456FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="334901471"/>
-        <c:axId val="334896063"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="334901471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334896063"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="334896063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="334901471"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4240,522 +3066,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4781,49 +3091,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2406856</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>215082</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>30726</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B9386-C53E-4F86-9E9B-4EBABD2BE19E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7638,14 +5905,14 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>131</v>
       </c>
@@ -7653,971 +5920,971 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>0.222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>0.871</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>0.495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>0.33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>0.123</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>0.27</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>0.221</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>0.18</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>0.218</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>0.872</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>0.191</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>0.217</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>0.44</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>0.438</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>1.2930000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>0.193</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>0.376</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>0.7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>0.183</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>0.184</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89">
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99">
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>7.1300000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>8.3199999999999996E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>0.31</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109">
         <v>0.499</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111">
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>0.185</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113">
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>0.2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119">
         <v>0.123</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121">
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123">
         <v>3.0110000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124">
         <v>55.548099999999998</v>
       </c>
     </row>
@@ -8633,29 +6900,29 @@
   <dimension ref="A1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="S1" sqref="S1:T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8692,14 +6959,8 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8739,14 +7000,8 @@
       <c r="M2">
         <v>122.925</v>
       </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8786,19 +7041,14 @@
       <c r="M3">
         <v>90.831000000000003</v>
       </c>
-      <c r="S3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>0.29599999999999999</v>
@@ -8833,19 +7083,14 @@
       <c r="M4">
         <v>168.4</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>0.223</v>
@@ -8880,19 +7125,13 @@
       <c r="M5">
         <v>73.058999999999997</v>
       </c>
-      <c r="S5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>0.32900000000000001</v>
@@ -8927,19 +7166,13 @@
       <c r="M6">
         <v>80.094999999999999</v>
       </c>
-      <c r="S6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>0.501</v>
@@ -8975,12 +7208,12 @@
         <v>79.968000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>0.503</v>
@@ -9016,12 +7249,12 @@
         <v>80.658000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>0.47599999999999998</v>
@@ -9057,12 +7290,12 @@
         <v>90.066000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>0.55000000000000004</v>
@@ -9098,12 +7331,12 @@
         <v>136.02500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>0.52700000000000002</v>
@@ -9139,12 +7372,12 @@
         <v>143.892</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>0.47399999999999998</v>
@@ -9180,12 +7413,12 @@
         <v>139.994</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>0.48399999999999999</v>
@@ -9221,12 +7454,12 @@
         <v>83.686000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>0.43</v>
@@ -9262,12 +7495,12 @@
         <v>85.959000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>0.63500000000000001</v>
@@ -9303,12 +7536,12 @@
         <v>80.034999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>0.59</v>
@@ -9344,12 +7577,12 @@
         <v>93.995999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>0.48199999999999998</v>
@@ -9385,12 +7618,12 @@
         <v>82.066000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18">
         <v>0.68100000000000005</v>
@@ -9426,12 +7659,12 @@
         <v>116.033</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>0.441</v>
@@ -9467,12 +7700,12 @@
         <v>79.736000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>0.29899999999999999</v>
@@ -9508,12 +7741,12 @@
         <v>76.11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>0.63400000000000001</v>
@@ -9549,12 +7782,12 @@
         <v>144.01900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>0.48299999999999998</v>
@@ -9590,12 +7823,12 @@
         <v>83.781999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23">
         <v>0.59899999999999998</v>
@@ -9631,12 +7864,12 @@
         <v>87.167000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24">
         <v>0.53600000000000003</v>
@@ -9672,12 +7905,12 @@
         <v>113.97199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>0.71899999999999997</v>
@@ -9713,12 +7946,12 @@
         <v>86.971000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26">
         <v>0.56799999999999995</v>
@@ -9754,12 +7987,12 @@
         <v>110.07899999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27">
         <v>0.55400000000000005</v>
@@ -9795,7 +8028,7 @@
         <v>137.92099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9836,12 +8069,12 @@
         <v>96.012</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29">
         <v>0.52400000000000002</v>
@@ -9877,12 +8110,12 @@
         <v>89.915000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30">
         <v>0.54800000000000004</v>
@@ -9918,12 +8151,12 @@
         <v>94.972999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31">
         <v>0.63800000000000001</v>
@@ -9959,12 +8192,12 @@
         <v>91.100999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>0.64400000000000002</v>
@@ -10000,12 +8233,12 @@
         <v>131.90299999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33">
         <v>0.58599999999999997</v>
@@ -10041,12 +8274,12 @@
         <v>78.015000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>0.47099999999999997</v>
@@ -10082,12 +8315,12 @@
         <v>126.107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35">
         <v>0.25700000000000001</v>
@@ -10123,12 +8356,12 @@
         <v>160.12700000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36">
         <v>0.49099999999999999</v>
@@ -10164,12 +8397,12 @@
         <v>107.878</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37">
         <v>0.55600000000000005</v>
@@ -10205,12 +8438,12 @@
         <v>149.60400000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38">
         <v>0.53100000000000003</v>
@@ -10246,7 +8479,7 @@
         <v>107.99</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -10287,12 +8520,12 @@
         <v>94.42</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40">
         <v>0.67400000000000004</v>
@@ -10328,12 +8561,12 @@
         <v>139.93199999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41">
         <v>0.60199999999999998</v>
@@ -10369,12 +8602,12 @@
         <v>82.02</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>0.58399999999999996</v>
@@ -10410,12 +8643,12 @@
         <v>79.992999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43">
         <v>0.65900000000000003</v>
@@ -10451,12 +8684,12 @@
         <v>93.012</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44">
         <v>0.51500000000000001</v>
@@ -10492,12 +8725,12 @@
         <v>169.52099999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>0.49299999999999999</v>
@@ -10533,12 +8766,12 @@
         <v>89.981999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46">
         <v>0.70699999999999996</v>
@@ -10574,12 +8807,12 @@
         <v>115.93899999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47">
         <v>0.435</v>
@@ -10615,12 +8848,12 @@
         <v>128.04900000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48">
         <v>0.35399999999999998</v>
@@ -10656,12 +8889,12 @@
         <v>93.344999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49">
         <v>0.55000000000000004</v>
@@ -10697,12 +8930,12 @@
         <v>91.942999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50">
         <v>0.621</v>
@@ -10738,12 +8971,12 @@
         <v>144.02799999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C51">
         <v>0.53</v>
@@ -10779,12 +9012,12 @@
         <v>80.245000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52">
         <v>0.57399999999999995</v>
@@ -10820,7 +9053,7 @@
         <v>85.186000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -10861,12 +9094,12 @@
         <v>82.941000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54">
         <v>0.33800000000000002</v>
@@ -10902,12 +9135,12 @@
         <v>79.811000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55">
         <v>0.495</v>
@@ -10943,12 +9176,12 @@
         <v>159.99600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56">
         <v>0.64100000000000001</v>
@@ -10984,12 +9217,12 @@
         <v>98.03</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C57">
         <v>0.65500000000000003</v>
@@ -11025,12 +9258,12 @@
         <v>107.07299999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58">
         <v>0.66400000000000003</v>
@@ -11066,12 +9299,12 @@
         <v>93.137</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C59">
         <v>0.40600000000000003</v>
@@ -11107,12 +9340,12 @@
         <v>83.022999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C60">
         <v>0.47299999999999998</v>
@@ -11148,12 +9381,12 @@
         <v>143.374</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61">
         <v>0.26800000000000002</v>
@@ -11189,12 +9422,12 @@
         <v>55.832000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62">
         <v>0.53300000000000003</v>
@@ -11230,12 +9463,12 @@
         <v>149.9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63">
         <v>0.54900000000000004</v>
@@ -11271,12 +9504,12 @@
         <v>107.946</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64">
         <v>0.61499999999999999</v>
@@ -11312,12 +9545,12 @@
         <v>109.986</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65">
         <v>0.28499999999999998</v>
@@ -11353,12 +9586,12 @@
         <v>179.91800000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66">
         <v>0.51</v>
@@ -11394,12 +9627,12 @@
         <v>111.136</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C67">
         <v>0.59299999999999997</v>
@@ -11435,12 +9668,12 @@
         <v>99.031000000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C68">
         <v>0.40100000000000002</v>
@@ -11476,12 +9709,12 @@
         <v>128.45099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69">
         <v>0.52</v>
@@ -11517,12 +9750,12 @@
         <v>143.90100000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70">
         <v>0.443</v>
@@ -11558,12 +9791,12 @@
         <v>127.395</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C71">
         <v>0.33400000000000002</v>
@@ -11599,7 +9832,7 @@
         <v>129.959</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -11640,12 +9873,12 @@
         <v>89.459000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C73">
         <v>0.58499999999999996</v>
@@ -11681,12 +9914,12 @@
         <v>139.83099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74">
         <v>0.314</v>
@@ -11722,12 +9955,12 @@
         <v>199.631</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C75">
         <v>0.58899999999999997</v>
@@ -11763,12 +9996,12 @@
         <v>119.96899999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C76">
         <v>0.34300000000000003</v>
@@ -11804,7 +10037,7 @@
         <v>92.956999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>81</v>
       </c>
@@ -11845,7 +10078,7 @@
         <v>84.027000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>82</v>
       </c>
@@ -11886,12 +10119,12 @@
         <v>71.376999999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C79">
         <v>0.47199999999999998</v>
@@ -11927,12 +10160,12 @@
         <v>135.88200000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C80">
         <v>0.60899999999999999</v>
@@ -11968,12 +10201,12 @@
         <v>81.998999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81">
         <v>0.56299999999999994</v>
@@ -12009,12 +10242,12 @@
         <v>133.87299999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C82">
         <v>0.55200000000000005</v>
@@ -12050,7 +10283,7 @@
         <v>89.998999999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>90</v>
       </c>
@@ -12091,12 +10324,12 @@
         <v>122.96899999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C84">
         <v>0.495</v>
@@ -12132,12 +10365,12 @@
         <v>123.896</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85">
         <v>0.71199999999999997</v>
@@ -12173,12 +10406,12 @@
         <v>136.083</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86">
         <v>0.78100000000000003</v>
@@ -12214,7 +10447,7 @@
         <v>96.003</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>97</v>
       </c>
@@ -12252,7 +10485,7 @@
         <v>184.10499999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>98</v>
       </c>
@@ -12290,7 +10523,7 @@
         <v>99.638000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>99</v>
       </c>
@@ -12331,12 +10564,12 @@
         <v>104.96899999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C90">
         <v>0.65700000000000003</v>
@@ -12372,12 +10605,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C91">
         <v>0.70699999999999996</v>
@@ -12413,12 +10646,12 @@
         <v>118.974</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C92">
         <v>0.40300000000000002</v>
@@ -12454,12 +10687,12 @@
         <v>67.272000000000006</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93">
         <v>0.39400000000000002</v>
@@ -12495,12 +10728,12 @@
         <v>81.932000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94">
         <v>0.48099999999999998</v>
@@ -12536,12 +10769,12 @@
         <v>89.838999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95">
         <v>0.503</v>
@@ -12577,12 +10810,12 @@
         <v>80.658000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96">
         <v>0.59099999999999997</v>
@@ -12618,12 +10851,12 @@
         <v>114.02</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C97">
         <v>0.58599999999999997</v>
@@ -12659,7 +10892,7 @@
         <v>102.495</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>110</v>
       </c>
@@ -12697,12 +10930,12 @@
         <v>144.06800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C99">
         <v>0.54400000000000004</v>
@@ -12738,12 +10971,12 @@
         <v>143.95599999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100">
         <v>0.52800000000000002</v>
@@ -12779,7 +11012,7 @@
         <v>123.988</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>113</v>
       </c>
@@ -12817,12 +11050,12 @@
         <v>117.999</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102">
         <v>0.57599999999999996</v>
@@ -12858,12 +11091,12 @@
         <v>124.01300000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C103">
         <v>0.65700000000000003</v>
@@ -12899,12 +11132,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C104">
         <v>0.247</v>
@@ -12940,12 +11173,12 @@
         <v>168.82300000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C105">
         <v>0.51500000000000001</v>
@@ -12981,12 +11214,12 @@
         <v>131.73099999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C106">
         <v>0.58499999999999996</v>
@@ -13022,7 +11255,7 @@
         <v>77.984999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>120</v>
       </c>
@@ -13060,7 +11293,7 @@
         <v>105.001</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>121</v>
       </c>
@@ -13098,12 +11331,12 @@
         <v>98.936000000000007</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C109">
         <v>0.51500000000000001</v>
@@ -13139,12 +11372,12 @@
         <v>143.75200000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C110">
         <v>0.308</v>
@@ -13180,12 +11413,12 @@
         <v>171.84299999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C111">
         <v>0.55900000000000005</v>
@@ -13221,12 +11454,12 @@
         <v>83.977999999999994</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C112">
         <v>0.34100000000000003</v>
@@ -13262,7 +11495,7 @@
         <v>199.435</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>126</v>
       </c>
@@ -13300,7 +11533,7 @@
         <v>163.74700000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>127</v>
       </c>
@@ -13338,12 +11571,12 @@
         <v>124.001</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C115">
         <v>0.373</v>
@@ -13379,7 +11612,7 @@
         <v>84.503</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>129</v>
       </c>
@@ -13420,7 +11653,7 @@
         <v>147.935</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>130</v>
       </c>
@@ -13461,12 +11694,12 @@
         <v>99.994</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>131</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C118">
         <v>0.314</v>
@@ -13502,12 +11735,12 @@
         <v>78.992000000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>132</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C119">
         <v>0.59099999999999997</v>
@@ -13543,12 +11776,12 @@
         <v>130.05199999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C120">
         <v>0.64500000000000002</v>
@@ -13584,12 +11817,12 @@
         <v>119.98699999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C121">
         <v>0.223</v>
@@ -13625,12 +11858,12 @@
         <v>73.058999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C122">
         <v>0.49099999999999999</v>
@@ -13666,12 +11899,12 @@
         <v>100.008</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C123">
         <v>0.29899999999999999</v>
@@ -13707,12 +11940,12 @@
         <v>86.596999999999994</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C124">
         <v>0.65100000000000002</v>
@@ -13748,12 +11981,12 @@
         <v>106.99299999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C125">
         <v>0.53200000000000003</v>
@@ -13789,12 +12022,12 @@
         <v>81.989000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C126">
         <v>0.55200000000000005</v>
@@ -13830,12 +12063,12 @@
         <v>86.956999999999994</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C127">
         <v>0.53700000000000003</v>
@@ -13871,12 +12104,12 @@
         <v>67.018000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C128">
         <v>0.23100000000000001</v>
@@ -13912,12 +12145,12 @@
         <v>77.727000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C129">
         <v>0.51400000000000001</v>
@@ -13953,12 +12186,12 @@
         <v>153.79400000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C130">
         <v>0.45200000000000001</v>
@@ -13994,12 +12227,12 @@
         <v>135.18</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C131">
         <v>0.28699999999999998</v>
@@ -14035,12 +12268,12 @@
         <v>135.863</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C132">
         <v>0.33100000000000002</v>
@@ -14076,12 +12309,12 @@
         <v>136.42099999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>147</v>
       </c>
       <c r="B133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C133">
         <v>0.63</v>
@@ -14117,12 +12350,12 @@
         <v>140.00299999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C134">
         <v>0.53700000000000003</v>
@@ -14158,7 +12391,7 @@
         <v>90.953000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>149</v>
       </c>
@@ -14196,12 +12429,12 @@
         <v>91.796000000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C136">
         <v>0.59299999999999997</v>
@@ -14237,12 +12470,12 @@
         <v>99.031000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C137">
         <v>0.69299999999999995</v>
@@ -14278,7 +12511,7 @@
         <v>95.992999999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>153</v>
       </c>
@@ -14316,12 +12549,12 @@
         <v>151.779</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C139">
         <v>0.501</v>
@@ -14357,12 +12590,12 @@
         <v>76.006</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C140">
         <v>0.71199999999999997</v>
@@ -14398,7 +12631,7 @@
         <v>132.06100000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>156</v>
       </c>
@@ -14439,12 +12672,12 @@
         <v>114.10599999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C142">
         <v>0.48699999999999999</v>
@@ -14480,12 +12713,12 @@
         <v>136.08799999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C143">
         <v>0.54800000000000004</v>
@@ -14521,7 +12754,7 @@
         <v>94.974000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>159</v>
       </c>
@@ -14562,12 +12795,12 @@
         <v>107.98699999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>160</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C145">
         <v>0.55400000000000005</v>
@@ -14603,12 +12836,12 @@
         <v>137.92099999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>161</v>
       </c>
       <c r="B146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C146">
         <v>0.52400000000000002</v>
@@ -14644,12 +12877,12 @@
         <v>143.88499999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>162</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C147">
         <v>0.51</v>
@@ -14685,12 +12918,12 @@
         <v>133.88499999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>163</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C148">
         <v>0.499</v>
@@ -14726,12 +12959,12 @@
         <v>134.958</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>164</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C149">
         <v>0.53700000000000003</v>
@@ -14767,12 +13000,12 @@
         <v>89.915999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>165</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C150">
         <v>0.64300000000000002</v>
@@ -14808,12 +13041,12 @@
         <v>94.998999999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>166</v>
       </c>
       <c r="B151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C151">
         <v>0.63</v>
@@ -14849,12 +13082,12 @@
         <v>107.10299999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>167</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C152">
         <v>0.442</v>
@@ -14890,12 +13123,12 @@
         <v>167.857</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>169</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C153">
         <v>0.38200000000000001</v>
@@ -14931,12 +13164,12 @@
         <v>82.998999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>170</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C154">
         <v>0.46800000000000003</v>
@@ -14972,7 +13205,7 @@
         <v>160.30699999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>171</v>
       </c>
@@ -15010,12 +13243,12 @@
         <v>116.033</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C156">
         <v>0.38</v>
@@ -15061,6 +13294,5 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>